--- a/data/134/DEUSTATIS/old/Persons employed in retail trade.xlsx
+++ b/data/134/DEUSTATIS/old/Persons employed in retail trade.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="67">
   <si>
     <t>Persons employed in retail trade (measuring values and rates
 of change): Germany, months/quarters/half-years, economic
@@ -224,7 +224,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:07:29</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:02:53</t>
   </si>
 </sst>
 </file>
@@ -12271,7 +12271,7 @@
         <v>106.1</v>
       </c>
       <c r="LO9" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="LP9" t="n" s="10">
         <v>104.0</v>
@@ -12283,7 +12283,7 @@
         <v>104.8</v>
       </c>
       <c r="LS9" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="LT9" t="n" s="10">
         <v>105.8</v>
@@ -12291,14 +12291,14 @@
       <c r="LU9" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="LV9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW9" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX9" t="s" s="10">
-        <v>50</v>
+      <c r="LV9" t="n" s="10">
+        <v>105.9</v>
+      </c>
+      <c r="LW9" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="LX9" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="LY9" t="s" s="10">
         <v>50</v>
@@ -13287,7 +13287,7 @@
         <v>0.4</v>
       </c>
       <c r="LO10" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="LP10" t="n" s="10">
         <v>0.0</v>
@@ -13299,7 +13299,7 @@
         <v>1.0</v>
       </c>
       <c r="LS10" t="n" s="10">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="LT10" t="n" s="10">
         <v>1.1</v>
@@ -13307,14 +13307,14 @@
       <c r="LU10" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="LV10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX10" t="s" s="10">
-        <v>50</v>
+      <c r="LV10" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="LW10" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="LX10" t="n" s="10">
+        <v>0.5</v>
       </c>
       <c r="LY10" t="s" s="10">
         <v>50</v>
@@ -14324,13 +14324,13 @@
         <v>56</v>
       </c>
       <c r="LV11" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW11" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX11" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY11" t="s" s="10">
         <v>50</v>
@@ -15340,13 +15340,13 @@
         <v>56</v>
       </c>
       <c r="LV12" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW12" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX12" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY12" t="s" s="10">
         <v>50</v>
@@ -16356,13 +16356,13 @@
         <v>56</v>
       </c>
       <c r="LV13" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW13" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX13" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY13" t="s" s="10">
         <v>50</v>
@@ -17372,13 +17372,13 @@
         <v>56</v>
       </c>
       <c r="LV14" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW14" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX14" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY14" t="s" s="10">
         <v>50</v>
@@ -18372,34 +18372,34 @@
         <v>111.4</v>
       </c>
       <c r="LO16" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="LP16" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="LQ16" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="LR16" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="LS16" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="LT16" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="LU16" t="n" s="10">
-        <v>111.4</v>
-      </c>
-      <c r="LV16" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW16" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX16" t="s" s="10">
-        <v>50</v>
+        <v>111.3</v>
+      </c>
+      <c r="LV16" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="LW16" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="LX16" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="LY16" t="s" s="10">
         <v>50</v>
@@ -19388,34 +19388,34 @@
         <v>3.4</v>
       </c>
       <c r="LO17" t="n" s="10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="LP17" t="n" s="10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="LQ17" t="n" s="10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="LR17" t="n" s="10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="LS17" t="n" s="10">
         <v>1.6</v>
       </c>
       <c r="LT17" t="n" s="10">
-        <v>2.0</v>
+        <v>2.1</v>
       </c>
       <c r="LU17" t="n" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="LV17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX17" t="s" s="10">
-        <v>50</v>
+        <v>1.4</v>
+      </c>
+      <c r="LV17" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="LW17" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="LX17" t="n" s="10">
+        <v>0.1</v>
       </c>
       <c r="LY17" t="s" s="10">
         <v>50</v>
@@ -20425,13 +20425,13 @@
         <v>56</v>
       </c>
       <c r="LV18" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW18" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX18" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY18" t="s" s="10">
         <v>50</v>
@@ -21441,13 +21441,13 @@
         <v>56</v>
       </c>
       <c r="LV19" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW19" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX19" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY19" t="s" s="10">
         <v>50</v>
@@ -22457,13 +22457,13 @@
         <v>56</v>
       </c>
       <c r="LV20" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW20" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX20" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY20" t="s" s="10">
         <v>50</v>
@@ -23473,13 +23473,13 @@
         <v>56</v>
       </c>
       <c r="LV21" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW21" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX21" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY21" t="s" s="10">
         <v>50</v>
@@ -24479,13 +24479,13 @@
         <v>103.4</v>
       </c>
       <c r="LQ23" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="LR23" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="LS23" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="LT23" t="n" s="10">
         <v>106.6</v>
@@ -24493,14 +24493,14 @@
       <c r="LU23" t="n" s="10">
         <v>106.2</v>
       </c>
-      <c r="LV23" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW23" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX23" t="s" s="10">
-        <v>50</v>
+      <c r="LV23" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="LW23" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="LX23" t="n" s="10">
+        <v>105.6</v>
       </c>
       <c r="LY23" t="s" s="10">
         <v>50</v>
@@ -25495,13 +25495,13 @@
         <v>-1.1</v>
       </c>
       <c r="LQ24" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="LR24" t="n" s="10">
         <v>1.9</v>
       </c>
       <c r="LS24" t="n" s="10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="LT24" t="n" s="10">
         <v>0.8</v>
@@ -25509,14 +25509,14 @@
       <c r="LU24" t="n" s="10">
         <v>0.7</v>
       </c>
-      <c r="LV24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW24" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX24" t="s" s="10">
-        <v>50</v>
+      <c r="LV24" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="LW24" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="LX24" t="n" s="10">
+        <v>-0.6</v>
       </c>
       <c r="LY24" t="s" s="10">
         <v>50</v>
@@ -26526,13 +26526,13 @@
         <v>56</v>
       </c>
       <c r="LV25" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW25" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX25" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY25" t="s" s="10">
         <v>50</v>
@@ -27542,13 +27542,13 @@
         <v>56</v>
       </c>
       <c r="LV26" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW26" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX26" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY26" t="s" s="10">
         <v>50</v>
@@ -28558,13 +28558,13 @@
         <v>56</v>
       </c>
       <c r="LV27" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW27" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX27" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY27" t="s" s="10">
         <v>50</v>
@@ -29574,13 +29574,13 @@
         <v>56</v>
       </c>
       <c r="LV28" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW28" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX28" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY28" t="s" s="10">
         <v>50</v>
@@ -30574,34 +30574,34 @@
         <v>111.3</v>
       </c>
       <c r="LO30" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="LP30" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="LQ30" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="LR30" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="LS30" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="LP30" t="n" s="10">
-        <v>109.5</v>
-      </c>
-      <c r="LQ30" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="LR30" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="LS30" t="n" s="10">
-        <v>110.8</v>
-      </c>
       <c r="LT30" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="LU30" t="n" s="10">
         <v>111.4</v>
       </c>
-      <c r="LU30" t="n" s="10">
-        <v>111.7</v>
-      </c>
-      <c r="LV30" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW30" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX30" t="s" s="10">
-        <v>50</v>
+      <c r="LV30" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="LW30" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="LX30" t="n" s="10">
+        <v>111.6</v>
       </c>
       <c r="LY30" t="s" s="10">
         <v>50</v>
@@ -31590,34 +31590,34 @@
         <v>1.8</v>
       </c>
       <c r="LO31" t="n" s="10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="LP31" t="n" s="10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="LQ31" t="n" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="LR31" t="n" s="10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="LS31" t="n" s="10">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="LT31" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="LU31" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LV31" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW31" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX31" t="s" s="10">
-        <v>50</v>
+        <v>-0.1</v>
+      </c>
+      <c r="LV31" t="n" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="LW31" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="LX31" t="n" s="10">
+        <v>-0.9</v>
       </c>
       <c r="LY31" t="s" s="10">
         <v>50</v>
@@ -32627,13 +32627,13 @@
         <v>56</v>
       </c>
       <c r="LV32" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW32" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX32" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY32" t="s" s="10">
         <v>50</v>
@@ -33643,13 +33643,13 @@
         <v>56</v>
       </c>
       <c r="LV33" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW33" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX33" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY33" t="s" s="10">
         <v>50</v>
@@ -34659,13 +34659,13 @@
         <v>56</v>
       </c>
       <c r="LV34" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW34" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX34" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY34" t="s" s="10">
         <v>50</v>
@@ -35675,13 +35675,13 @@
         <v>56</v>
       </c>
       <c r="LV35" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW35" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX35" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY35" t="s" s="10">
         <v>50</v>
@@ -36681,28 +36681,28 @@
         <v>91.3</v>
       </c>
       <c r="LQ37" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="LR37" t="n" s="10">
         <v>89.2</v>
       </c>
       <c r="LS37" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="LT37" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="LU37" t="n" s="10">
-        <v>88.7</v>
-      </c>
-      <c r="LV37" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW37" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX37" t="s" s="10">
-        <v>50</v>
+        <v>88.8</v>
+      </c>
+      <c r="LV37" t="n" s="10">
+        <v>89.5</v>
+      </c>
+      <c r="LW37" t="n" s="10">
+        <v>89.8</v>
+      </c>
+      <c r="LX37" t="n" s="10">
+        <v>89.8</v>
       </c>
       <c r="LY37" t="s" s="10">
         <v>50</v>
@@ -37697,28 +37697,28 @@
         <v>-5.2</v>
       </c>
       <c r="LQ38" t="n" s="10">
-        <v>-6.0</v>
+        <v>-5.9</v>
       </c>
       <c r="LR38" t="n" s="10">
         <v>-3.6</v>
       </c>
       <c r="LS38" t="n" s="10">
+        <v>-3.8</v>
+      </c>
+      <c r="LT38" t="n" s="10">
+        <v>-3.5</v>
+      </c>
+      <c r="LU38" t="n" s="10">
+        <v>-3.5</v>
+      </c>
+      <c r="LV38" t="n" s="10">
         <v>-3.9</v>
       </c>
-      <c r="LT38" t="n" s="10">
-        <v>-3.6</v>
-      </c>
-      <c r="LU38" t="n" s="10">
-        <v>-3.6</v>
-      </c>
-      <c r="LV38" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW38" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX38" t="s" s="10">
-        <v>50</v>
+      <c r="LW38" t="n" s="10">
+        <v>-3.8</v>
+      </c>
+      <c r="LX38" t="n" s="10">
+        <v>-3.8</v>
       </c>
       <c r="LY38" t="s" s="10">
         <v>50</v>
@@ -38728,13 +38728,13 @@
         <v>56</v>
       </c>
       <c r="LV39" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW39" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX39" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY39" t="s" s="10">
         <v>50</v>
@@ -39744,13 +39744,13 @@
         <v>56</v>
       </c>
       <c r="LV40" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW40" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX40" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY40" t="s" s="10">
         <v>50</v>
@@ -40760,13 +40760,13 @@
         <v>56</v>
       </c>
       <c r="LV41" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW41" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX41" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY41" t="s" s="10">
         <v>50</v>
@@ -41776,13 +41776,13 @@
         <v>56</v>
       </c>
       <c r="LV42" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW42" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX42" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY42" t="s" s="10">
         <v>50</v>
@@ -42779,10 +42779,10 @@
         <v>103.9</v>
       </c>
       <c r="LP44" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="LQ44" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="LR44" t="n" s="10">
         <v>104.2</v>
@@ -42791,19 +42791,19 @@
         <v>104.2</v>
       </c>
       <c r="LT44" t="n" s="10">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="LU44" t="n" s="10">
-        <v>104.4</v>
-      </c>
-      <c r="LV44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW44" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX44" t="s" s="10">
-        <v>50</v>
+        <v>104.5</v>
+      </c>
+      <c r="LV44" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="LW44" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="LX44" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="LY44" t="s" s="10">
         <v>50</v>
@@ -43795,10 +43795,10 @@
         <v>1.2</v>
       </c>
       <c r="LP45" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="LQ45" t="n" s="10">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="LR45" t="n" s="10">
         <v>2.3</v>
@@ -43807,19 +43807,19 @@
         <v>1.7</v>
       </c>
       <c r="LT45" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="LU45" t="n" s="10">
         <v>1.1</v>
       </c>
-      <c r="LU45" t="n" s="10">
+      <c r="LV45" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="LW45" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="LX45" t="n" s="10">
         <v>1.0</v>
-      </c>
-      <c r="LV45" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW45" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX45" t="s" s="10">
-        <v>50</v>
       </c>
       <c r="LY45" t="s" s="10">
         <v>50</v>
@@ -44829,13 +44829,13 @@
         <v>56</v>
       </c>
       <c r="LV46" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW46" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX46" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY46" t="s" s="10">
         <v>50</v>
@@ -45845,13 +45845,13 @@
         <v>56</v>
       </c>
       <c r="LV47" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW47" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX47" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY47" t="s" s="10">
         <v>50</v>
@@ -46861,13 +46861,13 @@
         <v>56</v>
       </c>
       <c r="LV48" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW48" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX48" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY48" t="s" s="10">
         <v>50</v>
@@ -47877,13 +47877,13 @@
         <v>56</v>
       </c>
       <c r="LV49" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW49" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX49" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY49" t="s" s="10">
         <v>50</v>
@@ -48877,10 +48877,10 @@
         <v>112.9</v>
       </c>
       <c r="LO51" t="n" s="10">
-        <v>113.7</v>
+        <v>113.4</v>
       </c>
       <c r="LP51" t="n" s="10">
-        <v>114.6</v>
+        <v>114.4</v>
       </c>
       <c r="LQ51" t="n" s="10">
         <v>116.4</v>
@@ -48892,19 +48892,19 @@
         <v>117.4</v>
       </c>
       <c r="LT51" t="n" s="10">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="LU51" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="LV51" t="n" s="10">
         <v>119.2</v>
       </c>
-      <c r="LV51" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW51" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX51" t="s" s="10">
-        <v>50</v>
+      <c r="LW51" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="LX51" t="n" s="10">
+        <v>119.4</v>
       </c>
       <c r="LY51" t="s" s="10">
         <v>50</v>
@@ -49893,10 +49893,10 @@
         <v>4.5</v>
       </c>
       <c r="LO52" t="n" s="10">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="LP52" t="n" s="10">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="LQ52" t="n" s="10">
         <v>8.8</v>
@@ -49908,19 +49908,19 @@
         <v>9.2</v>
       </c>
       <c r="LT52" t="n" s="10">
-        <v>9.3</v>
+        <v>9.4</v>
       </c>
       <c r="LU52" t="n" s="10">
-        <v>9.2</v>
-      </c>
-      <c r="LV52" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW52" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LX52" t="s" s="10">
-        <v>50</v>
+        <v>8.8</v>
+      </c>
+      <c r="LV52" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="LW52" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="LX52" t="n" s="10">
+        <v>7.8</v>
       </c>
       <c r="LY52" t="s" s="10">
         <v>50</v>
@@ -50930,13 +50930,13 @@
         <v>56</v>
       </c>
       <c r="LV53" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW53" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX53" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY53" t="s" s="10">
         <v>50</v>
@@ -51946,13 +51946,13 @@
         <v>56</v>
       </c>
       <c r="LV54" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW54" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX54" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY54" t="s" s="10">
         <v>50</v>
@@ -52962,13 +52962,13 @@
         <v>56</v>
       </c>
       <c r="LV55" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW55" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX55" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY55" t="s" s="10">
         <v>50</v>
@@ -53978,13 +53978,13 @@
         <v>56</v>
       </c>
       <c r="LV56" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW56" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX56" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY56" t="s" s="10">
         <v>50</v>
@@ -54942,19 +54942,19 @@
         <v>105.2</v>
       </c>
       <c r="LC58" t="n" s="10">
-        <v>103.5</v>
+        <v>103.9</v>
       </c>
       <c r="LD58" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="LE58" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="LF58" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="LG58" t="n" s="10">
         <v>103.4</v>
-      </c>
-      <c r="LE58" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="LF58" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="LG58" t="n" s="10">
-        <v>103.5</v>
       </c>
       <c r="LH58" t="n" s="10">
         <v>103.7</v>
@@ -54963,7 +54963,7 @@
         <v>103.7</v>
       </c>
       <c r="LJ58" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="LK58" t="n" s="10">
         <v>104.6</v>
@@ -54972,37 +54972,37 @@
         <v>104.8</v>
       </c>
       <c r="LM58" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="LN58" t="n" s="10">
-        <v>105.2</v>
+        <v>105.0</v>
       </c>
       <c r="LO58" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="LP58" t="n" s="10">
         <v>103.0</v>
       </c>
       <c r="LQ58" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="LR58" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="LS58" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="LT58" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="LU58" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="LV58" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW58" t="s" s="10">
-        <v>50</v>
+        <v>104.0</v>
+      </c>
+      <c r="LV58" t="n" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="LW58" t="n" s="10">
+        <v>104.6</v>
       </c>
       <c r="LX58" t="s" s="10">
         <v>50</v>
@@ -55958,19 +55958,19 @@
         <v>-0.2</v>
       </c>
       <c r="LC59" t="n" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="LD59" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="LE59" t="n" s="10">
         <v>0.2</v>
       </c>
-      <c r="LE59" t="n" s="10">
-        <v>0.0</v>
-      </c>
       <c r="LF59" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="LG59" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="LH59" t="n" s="10">
         <v>0.0</v>
@@ -55979,7 +55979,7 @@
         <v>0.1</v>
       </c>
       <c r="LJ59" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="LK59" t="n" s="10">
         <v>0.1</v>
@@ -55988,37 +55988,37 @@
         <v>0.1</v>
       </c>
       <c r="LM59" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="LN59" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="LO59" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.3</v>
       </c>
       <c r="LP59" t="n" s="10">
+        <v>-0.7</v>
+      </c>
+      <c r="LQ59" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="LQ59" t="n" s="10">
-        <v>-0.1</v>
-      </c>
       <c r="LR59" t="n" s="10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="LS59" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="LT59" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="LU59" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="LV59" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="LW59" t="s" s="10">
-        <v>50</v>
+        <v>0.3</v>
+      </c>
+      <c r="LV59" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="LW59" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="LX59" t="s" s="10">
         <v>50</v>
@@ -56974,70 +56974,70 @@
         <v>103.6</v>
       </c>
       <c r="LC60" t="n" s="10">
-        <v>102.2</v>
+        <v>102.6</v>
       </c>
       <c r="LD60" t="n" s="10">
-        <v>102.0</v>
+        <v>102.4</v>
       </c>
       <c r="LE60" t="n" s="10">
-        <v>102.2</v>
+        <v>102.5</v>
       </c>
       <c r="LF60" t="n" s="10">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="LG60" t="n" s="10">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="LH60" t="n" s="10">
-        <v>102.3</v>
+        <v>101.8</v>
       </c>
       <c r="LI60" t="n" s="10">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
       <c r="LJ60" t="n" s="10">
         <v>102.9</v>
       </c>
       <c r="LK60" t="n" s="10">
-        <v>103.2</v>
+        <v>103.9</v>
       </c>
       <c r="LL60" t="n" s="10">
+        <v>103.9</v>
+      </c>
+      <c r="LM60" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="LN60" t="n" s="10">
         <v>103.5</v>
       </c>
-      <c r="LM60" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="LN60" t="n" s="10">
-        <v>103.8</v>
-      </c>
-      <c r="LO60" t="n" s="10">
-        <v>102.2</v>
-      </c>
-      <c r="LP60" t="n" s="10">
-        <v>101.7</v>
-      </c>
-      <c r="LQ60" t="n" s="10">
-        <v>102.1</v>
-      </c>
-      <c r="LR60" t="n" s="10">
-        <v>102.3</v>
-      </c>
-      <c r="LS60" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="LT60" t="n" s="10">
-        <v>102.9</v>
-      </c>
-      <c r="LU60" t="n" s="10">
-        <v>102.8</v>
+      <c r="LO60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LP60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LQ60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LR60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LS60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LT60" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LU60" t="s" s="10">
+        <v>56</v>
       </c>
       <c r="LV60" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW60" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX60" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY60" t="s" s="10">
         <v>50</v>
@@ -57990,70 +57990,70 @@
         <v>-1.1</v>
       </c>
       <c r="LC61" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="LD61" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="LE61" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="LF61" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="LG61" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="LE61" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="LF61" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="LG61" t="n" s="10">
-        <v>-0.1</v>
-      </c>
       <c r="LH61" t="n" s="10">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="LI61" t="n" s="10">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="LJ61" t="n" s="10">
         <v>-0.3</v>
       </c>
       <c r="LK61" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
       <c r="LL61" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="LM61" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="LN61" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LO61" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LP61" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="LQ61" t="n" s="10">
         <v>-0.1</v>
       </c>
-      <c r="LR61" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="LS61" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="LT61" t="n" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="LU61" t="n" s="10">
-        <v>0.5</v>
+      <c r="LO61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LP61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LQ61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LR61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LS61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LT61" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LU61" t="s" s="10">
+        <v>56</v>
       </c>
       <c r="LV61" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW61" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX61" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY61" t="s" s="10">
         <v>50</v>
@@ -59006,70 +59006,70 @@
         <v>106.6</v>
       </c>
       <c r="LC62" t="n" s="10">
-        <v>0.0</v>
+        <v>104.9</v>
       </c>
       <c r="LD62" t="n" s="10">
-        <v>0.0</v>
+        <v>104.8</v>
       </c>
       <c r="LE62" t="n" s="10">
-        <v>0.0</v>
+        <v>104.8</v>
       </c>
       <c r="LF62" t="n" s="10">
-        <v>0.0</v>
+        <v>104.5</v>
       </c>
       <c r="LG62" t="n" s="10">
-        <v>0.0</v>
+        <v>104.8</v>
       </c>
       <c r="LH62" t="n" s="10">
-        <v>0.0</v>
+        <v>105.3</v>
       </c>
       <c r="LI62" t="n" s="10">
-        <v>0.0</v>
+        <v>105.6</v>
       </c>
       <c r="LJ62" t="n" s="10">
-        <v>0.0</v>
+        <v>105.4</v>
       </c>
       <c r="LK62" t="n" s="10">
-        <v>0.0</v>
+        <v>105.2</v>
       </c>
       <c r="LL62" t="n" s="10">
-        <v>0.0</v>
+        <v>105.6</v>
       </c>
       <c r="LM62" t="n" s="10">
-        <v>0.0</v>
+        <v>106.3</v>
       </c>
       <c r="LN62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LO62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LP62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LQ62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LR62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LS62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LT62" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="LU62" t="n" s="10">
-        <v>0.0</v>
+        <v>106.4</v>
+      </c>
+      <c r="LO62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LP62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LQ62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LR62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LS62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LT62" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="LU62" t="s" s="10">
+        <v>56</v>
       </c>
       <c r="LV62" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW62" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX62" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY62" t="s" s="10">
         <v>50</v>
@@ -60022,70 +60022,70 @@
         <v>0.5</v>
       </c>
       <c r="LC63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.9</v>
       </c>
       <c r="LD63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.8</v>
       </c>
       <c r="LE63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.5</v>
       </c>
       <c r="LF63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.3</v>
       </c>
       <c r="LG63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.4</v>
       </c>
       <c r="LH63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.2</v>
       </c>
       <c r="LI63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.1</v>
       </c>
       <c r="LJ63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.3</v>
       </c>
       <c r="LK63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.4</v>
       </c>
       <c r="LL63" t="n" s="10">
-        <v>-100.0</v>
+        <v>0.4</v>
       </c>
       <c r="LM63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.2</v>
       </c>
       <c r="LN63" t="n" s="10">
-        <v>-100.0</v>
+        <v>-0.2</v>
       </c>
       <c r="LO63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LP63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LQ63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LR63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LS63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LT63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LU63" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="LV63" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LW63" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LX63" t="s" s="10">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="LY63" t="s" s="10">
         <v>50</v>
@@ -60179,7 +60179,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:07:37&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:03:05&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>